--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="913"/>
+    <workbookView xWindow="9720" yWindow="100" windowWidth="30220" windowHeight="14000" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$11</definedName>
   </definedNames>
@@ -233,7 +236,310 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
+  <si>
+    <t>DESCRIPCION DEL CARGO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MUELLE Y ACOPLE</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ESTIBA</t>
+  </si>
+  <si>
+    <t>CAPORAL DE MUELLE</t>
+  </si>
+  <si>
+    <t>CHEQUE DE MUELLE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>ESTIBADOR</t>
+  </si>
+  <si>
+    <t>MUELLERO</t>
+  </si>
+  <si>
+    <t>MUELLERO BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>AMARRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AUDITOR INTERNO</t>
+  </si>
+  <si>
+    <t>JEFE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR Y PAGADOR</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>UTILERO</t>
+  </si>
+  <si>
+    <t>ORDENANZA</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PATIOS Y BODEGAS</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BASCULA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>SUPERINTENDENTE</t>
+  </si>
+  <si>
+    <t>AGRONOMO</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BOB- CAT</t>
+  </si>
+  <si>
+    <t>DIBUJANTE</t>
+  </si>
+  <si>
+    <t>PINTOR</t>
+  </si>
+  <si>
+    <t>TAPICERO</t>
+  </si>
+  <si>
+    <t>HOJALATERO</t>
+  </si>
+  <si>
+    <t>FONTANERO</t>
+  </si>
+  <si>
+    <t>ALBA¥IL</t>
+  </si>
+  <si>
+    <t>CARPINTERO</t>
+  </si>
+  <si>
+    <t>JARDINERO</t>
+  </si>
+  <si>
+    <t>TECNICO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMION CISTERNA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE CHAPODA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPOS DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>JEFE DE TALLER MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO</t>
+  </si>
+  <si>
+    <t>ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SOLDADOR</t>
+  </si>
+  <si>
+    <t>ENGRASADOR</t>
+  </si>
+  <si>
+    <t>TORNERO</t>
+  </si>
+  <si>
+    <t>AUXILIAR MECANICO</t>
+  </si>
+  <si>
+    <t>OBRERO NO CALIFICADO</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE OFICINA</t>
+  </si>
+  <si>
+    <t>GERENTE DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>TECNICO ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>TECNICO MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO  1A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>MECANICO 2A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DIVISION</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>SUBGERENTE DE DIVISION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>JEFE DE MONTAJES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>TECNICO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTROL ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>OBRERO CALIFICADO</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>PEON DE BODEGAS</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>GERENTE ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>BANDEROS</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE UTILERIA</t>
+  </si>
+  <si>
+    <t>TRINCADORES</t>
+  </si>
+  <si>
+    <t>CAPORAL DE AMARRE</t>
+  </si>
+  <si>
+    <t>FICHERO</t>
+  </si>
+  <si>
+    <t>PALERO</t>
+  </si>
+  <si>
+    <t>CAPORAL BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR A BORDO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE UNIDAD DECARGA</t>
+  </si>
+  <si>
+    <t>WINCHERO EN PRACTICA</t>
+  </si>
+  <si>
+    <t>JEFE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE CONTROL DE BANDAS</t>
+  </si>
+  <si>
+    <t>OFERTADO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE ABORDO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR GENERAL</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>EMPRESA # 1</t>
+  </si>
+  <si>
+    <t>EMPRESA # 2</t>
+  </si>
+  <si>
+    <t>EMPRESA # 3</t>
+  </si>
+  <si>
+    <t>PRACTICANTE</t>
+  </si>
   <si>
     <t>N° DE DOCUMENTO</t>
   </si>
@@ -286,16 +592,133 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
+    <t>LICENCIA</t>
+  </si>
+  <si>
     <t>Jose Manuel Zamora DUI 03655270-0</t>
   </si>
   <si>
     <t>12 HRS</t>
   </si>
   <si>
+    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE DE MV. CHRISTINA B</t>
+  </si>
+  <si>
+    <t>Álvaro Santiago Cazun Moran</t>
+  </si>
+  <si>
+    <t>0311-160158-001-7</t>
+  </si>
+  <si>
+    <t>C-96228</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Marcos Tulio Enriquez Jimenez</t>
+  </si>
+  <si>
+    <t>0301-150391-103-8</t>
+  </si>
+  <si>
+    <t>C-92614</t>
+  </si>
+  <si>
+    <t>RE-7685</t>
+  </si>
+  <si>
+    <t>Gilberto Barrientos</t>
+  </si>
+  <si>
+    <t>0315-010856-101-0</t>
+  </si>
+  <si>
+    <t>C-95563</t>
+  </si>
+  <si>
+    <t>RE-4463</t>
+  </si>
+  <si>
+    <t>Tomas Alexander Mendoza Garcia</t>
+  </si>
+  <si>
+    <t>1418-211270-101-3</t>
+  </si>
+  <si>
+    <t>C-82965</t>
+  </si>
+  <si>
+    <t>RE-9389</t>
+  </si>
+  <si>
+    <t>Jose Aristides Flores Garcia</t>
+  </si>
+  <si>
+    <t>0301-020382-101-4</t>
+  </si>
+  <si>
+    <t>C-77536</t>
+  </si>
+  <si>
+    <t>RE-12573</t>
+  </si>
+  <si>
+    <t>David Rivas Orellana</t>
+  </si>
+  <si>
+    <t>0407-030957-001-0</t>
+  </si>
+  <si>
+    <t>C-90028</t>
+  </si>
+  <si>
+    <t>Juan Alberto Aragon Lemus</t>
+  </si>
+  <si>
+    <t>0301-300469-101-1</t>
+  </si>
+  <si>
+    <t>C-108789</t>
+  </si>
+  <si>
+    <t>Juan Antonio Diaz</t>
+  </si>
+  <si>
+    <t>0308-200283-101-2</t>
+  </si>
+  <si>
+    <t>C-105441</t>
+  </si>
+  <si>
+    <t>Raul Antonio Juarez Morales</t>
+  </si>
+  <si>
+    <t>0316-170884-101-8</t>
+  </si>
+  <si>
+    <t>C-91328</t>
+  </si>
+  <si>
+    <t>Alberto Antonio Solano Alegria</t>
+  </si>
+  <si>
+    <t>0102-041153-001-1</t>
+  </si>
+  <si>
+    <t>C-76852</t>
+  </si>
+  <si>
+    <t>Enrique Guillen Trigueros</t>
+  </si>
+  <si>
+    <t>0302-100555-001-9</t>
+  </si>
+  <si>
+    <t>C-112883</t>
+  </si>
+  <si>
     <t>TRANSPORTE ESMERALDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE </t>
   </si>
 </sst>
 </file>
@@ -305,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy;@"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +743,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
@@ -329,6 +758,18 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -567,7 +1008,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +1133,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -715,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -827,6 +1286,19 @@
       </top>
       <bottom style="double">
         <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,235 +1481,263 @@
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="3" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="28" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="28" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1746,31 +2246,31 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="21" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="A1" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -1781,564 +2281,674 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="54"/>
+      <c r="A3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="66"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="62" t="s">
-        <v>16</v>
+      <c r="A10" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="74" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="59"/>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="40"/>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-    </row>
-    <row r="46" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:7" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="1:8" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="71"/>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="64"/>
+    </row>
+    <row r="19" spans="1:7" s="39" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A33" s="45"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A36" s="45"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A37" s="45"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="49"/>
+    </row>
+    <row r="39" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+    </row>
+    <row r="44" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+    </row>
+    <row r="45" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+    </row>
+    <row r="46" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A49" s="45"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A50" s="45"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A51" s="45"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+      <c r="A52" s="45"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:8" ht="45" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="9"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A54" s="18" t="s">
-        <v>15</v>
+      <c r="A54" s="32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="1.5" customHeight="1" thickTop="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="9"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="25" customHeight="1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" ht="25" customHeight="1">
-      <c r="A57" s="12"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="25" customHeight="1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" ht="25" customHeight="1">
-      <c r="A59" s="12"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" ht="25" customHeight="1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="25" customHeight="1">
-      <c r="A61" s="11"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2346,7 +2956,7 @@
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="25" customHeight="1">
-      <c r="A62" s="9"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2360,7 +2970,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2393,4 +3003,1318 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="5" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="15">
+        <v>850</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15">
+        <v>750</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>700</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>500</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>900</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>290</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15">
+        <v>290</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15">
+        <v>260</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="15">
+        <v>700</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15">
+        <v>270</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="15">
+        <v>270</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="15">
+        <v>260</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1">
+      <c r="A88" s="10">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="15">
+        <v>600</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="12">
+        <v>600</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="15">
+        <v>0</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="13">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="100" windowWidth="30220" windowHeight="14000" tabRatio="913"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>DESCRIPCION DEL CARGO</t>
   </si>
@@ -592,9 +592,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>LICENCIA</t>
-  </si>
-  <si>
     <t>Jose Manuel Zamora DUI 03655270-0</t>
   </si>
   <si>
@@ -602,120 +599,6 @@
   </si>
   <si>
     <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE DE MV. CHRISTINA B</t>
-  </si>
-  <si>
-    <t>Álvaro Santiago Cazun Moran</t>
-  </si>
-  <si>
-    <t>0311-160158-001-7</t>
-  </si>
-  <si>
-    <t>C-96228</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Marcos Tulio Enriquez Jimenez</t>
-  </si>
-  <si>
-    <t>0301-150391-103-8</t>
-  </si>
-  <si>
-    <t>C-92614</t>
-  </si>
-  <si>
-    <t>RE-7685</t>
-  </si>
-  <si>
-    <t>Gilberto Barrientos</t>
-  </si>
-  <si>
-    <t>0315-010856-101-0</t>
-  </si>
-  <si>
-    <t>C-95563</t>
-  </si>
-  <si>
-    <t>RE-4463</t>
-  </si>
-  <si>
-    <t>Tomas Alexander Mendoza Garcia</t>
-  </si>
-  <si>
-    <t>1418-211270-101-3</t>
-  </si>
-  <si>
-    <t>C-82965</t>
-  </si>
-  <si>
-    <t>RE-9389</t>
-  </si>
-  <si>
-    <t>Jose Aristides Flores Garcia</t>
-  </si>
-  <si>
-    <t>0301-020382-101-4</t>
-  </si>
-  <si>
-    <t>C-77536</t>
-  </si>
-  <si>
-    <t>RE-12573</t>
-  </si>
-  <si>
-    <t>David Rivas Orellana</t>
-  </si>
-  <si>
-    <t>0407-030957-001-0</t>
-  </si>
-  <si>
-    <t>C-90028</t>
-  </si>
-  <si>
-    <t>Juan Alberto Aragon Lemus</t>
-  </si>
-  <si>
-    <t>0301-300469-101-1</t>
-  </si>
-  <si>
-    <t>C-108789</t>
-  </si>
-  <si>
-    <t>Juan Antonio Diaz</t>
-  </si>
-  <si>
-    <t>0308-200283-101-2</t>
-  </si>
-  <si>
-    <t>C-105441</t>
-  </si>
-  <si>
-    <t>Raul Antonio Juarez Morales</t>
-  </si>
-  <si>
-    <t>0316-170884-101-8</t>
-  </si>
-  <si>
-    <t>C-91328</t>
-  </si>
-  <si>
-    <t>Alberto Antonio Solano Alegria</t>
-  </si>
-  <si>
-    <t>0102-041153-001-1</t>
-  </si>
-  <si>
-    <t>C-76852</t>
-  </si>
-  <si>
-    <t>Enrique Guillen Trigueros</t>
-  </si>
-  <si>
-    <t>0302-100555-001-9</t>
-  </si>
-  <si>
-    <t>C-112883</t>
   </si>
   <si>
     <t>TRANSPORTE ESMERALDA</t>
@@ -1169,7 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1541,7 +1424,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1643,101 +1526,95 @@
     <xf numFmtId="1" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="29" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="41" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="29" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2246,7 +2123,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2262,15 +2139,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -2284,10 +2161,10 @@
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="66"/>
+      <c r="B3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="56"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2296,10 +2173,10 @@
       <c r="A4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="66"/>
+      <c r="B4" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -2310,9 +2187,9 @@
         <v>107</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="35"/>
       <c r="G5" s="28"/>
     </row>
@@ -2332,7 +2209,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -2345,9 +2222,9 @@
         <v>106</v>
       </c>
       <c r="B8" s="42"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="36"/>
     </row>
@@ -2356,7 +2233,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2365,517 +2242,407 @@
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="64" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="45"/>
-      <c r="B12" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="64"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A13" s="45"/>
-      <c r="B13" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="64"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A14" s="45"/>
-      <c r="B14" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="64"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="64"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A16" s="45"/>
-      <c r="B16" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="64"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A17" s="45"/>
-      <c r="B17" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="64"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A18" s="45"/>
-      <c r="B18" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="64"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" s="39" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="46"/>
-      <c r="B19" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="64"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A20" s="46"/>
-      <c r="B20" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="64"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="63"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="54"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="45"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="54"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="45"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="54"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A25" s="46"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="54"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="45"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="54"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A27" s="45"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="54"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A29" s="45"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A30" s="45"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="54"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A31" s="45"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="54"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="45"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A33" s="45"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="45"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A35" s="45"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="49"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="45"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="49"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A37" s="45"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="49"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="45"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="49"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="45"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="49"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="45"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="49"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A41" s="45"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="49"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A42" s="45"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A45" s="45"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A46" s="45"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A47" s="45"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="45"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A49" s="45"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A50" s="45"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="45"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="45"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="45" customHeight="1">
       <c r="A53" s="24"/>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -1550,6 +1550,36 @@
     <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1585,36 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F52"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2139,15 +2139,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -2161,10 +2161,10 @@
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2173,10 +2173,10 @@
       <c r="A4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -2187,9 +2187,9 @@
         <v>107</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="35"/>
       <c r="G5" s="28"/>
     </row>
@@ -2222,9 +2222,9 @@
         <v>106</v>
       </c>
       <c r="B8" s="42"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="27"/>
       <c r="G8" s="36"/>
     </row>
@@ -2242,38 +2242,38 @@
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="64" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="74" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="45"/>
@@ -2376,272 +2376,272 @@
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="45"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="45"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A25" s="46"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="45"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A27" s="45"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A29" s="45"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A30" s="45"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="50"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A31" s="45"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="45"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A33" s="45"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="45"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A35" s="45"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="45"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A37" s="45"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="45"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="45"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="45"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A41" s="45"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A42" s="45"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="70"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="70"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="70"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A45" s="45"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="70"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A46" s="45"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="70"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A47" s="45"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="70"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="45"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="70"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A49" s="45"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="70"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A50" s="45"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="70"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="45"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="70"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="45"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="74"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:8" ht="45" customHeight="1">
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -598,10 +598,10 @@
     <t>12 HRS</t>
   </si>
   <si>
-    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE DE MV. CHRISTINA B</t>
-  </si>
-  <si>
     <t>TRANSPORTE ESMERALDA</t>
+  </si>
+  <si>
+    <t>PERSONAL DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2162,7 +2162,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="2"/>
@@ -2233,7 +2233,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -891,7 +891,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,12 +1048,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1424,7 +1418,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1526,15 +1520,9 @@
     <xf numFmtId="1" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1544,42 +1532,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="22" fontId="4" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1615,6 +1567,39 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2123,7 +2108,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B12" sqref="B12:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2139,15 +2124,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
@@ -2161,10 +2146,10 @@
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2173,10 +2158,10 @@
       <c r="A4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -2187,9 +2172,9 @@
         <v>107</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="35"/>
       <c r="G5" s="28"/>
     </row>
@@ -2222,9 +2207,9 @@
         <v>106</v>
       </c>
       <c r="B8" s="42"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="27"/>
       <c r="G8" s="36"/>
     </row>
@@ -2242,407 +2227,407 @@
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="60" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="45"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A13" s="45"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A14" s="45"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A16" s="45"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A17" s="45"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A18" s="45"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="52"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7" s="39" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="46"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A20" s="46"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="52"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="45"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="45"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A25" s="46"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="45"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A27" s="45"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A29" s="45"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A30" s="45"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="50"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A31" s="45"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="45"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="48"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A33" s="45"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="48"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="45"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="48"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A35" s="45"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="48"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="45"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="48"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A37" s="45"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="48"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="45"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="48"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="45"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="48"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="45"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="48"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A41" s="45"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="48"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A42" s="45"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="49"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="70"/>
     </row>
     <row r="43" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A43" s="45"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="49"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="70"/>
     </row>
     <row r="44" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A44" s="45"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="70"/>
     </row>
     <row r="45" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A45" s="45"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="70"/>
     </row>
     <row r="46" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A46" s="45"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="49"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="70"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A47" s="45"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="49"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="70"/>
     </row>
     <row r="48" spans="1:7" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="45"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="49"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="70"/>
     </row>
     <row r="49" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A49" s="45"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A50" s="45"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="49"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="45"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="49"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="45"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="73"/>
     </row>
     <row r="53" spans="1:8" ht="45" customHeight="1">
       <c r="A53" s="24"/>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B4CEA-2ADD-3B4B-9727-47F206D2D708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B2363-B0B3-0C41-84CE-C8F235BA48F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="700" windowWidth="21540" windowHeight="19580" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29520" windowHeight="16140" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="15" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$11</definedName>
   </definedNames>
@@ -42,7 +44,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -97,7 +99,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -111,7 +113,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -152,7 +154,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -241,7 +243,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">SOLICITUD DE INGRESO DE UNIDADES  AL RECINTO PORTUARIO </t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA EMPRESA:</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE LA EMPRESA :</t>
+  </si>
+  <si>
+    <t>TELEFONO FIJO :</t>
+  </si>
+  <si>
+    <t>FECHA DE INGRESO :</t>
+  </si>
+  <si>
+    <t>PERIODO DE TIEMPO SOLICITADO :</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE CEPA :</t>
+  </si>
+  <si>
+    <t>MOTIVO DE INGRESO :</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA PERSONA</t>
+  </si>
   <si>
     <t>N° DE DOCUMENTO</t>
   </si>
@@ -249,34 +281,10 @@
     <t>TIPO DE DOCUMENTO</t>
   </si>
   <si>
-    <t>NOMBRE DE LA PERSONA</t>
-  </si>
-  <si>
-    <t>MOTIVO DE INGRESO :</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>SUPERVISOR DE CEPA :</t>
-  </si>
-  <si>
-    <t>TELEFONO FIJO :</t>
-  </si>
-  <si>
-    <t>SUPERVISOR DE LA EMPRESA :</t>
-  </si>
-  <si>
-    <t>NOMBRE DE LA EMPRESA:</t>
-  </si>
-  <si>
-    <t>PERIODO DE TIEMPO SOLICITADO :</t>
-  </si>
-  <si>
-    <t>FECHA DE INGRESO :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLICITUD DE INGRESO DE UNIDADES  AL RECINTO PORTUARIO </t>
+    <t>PLACAS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
   </si>
   <si>
     <t>CAMION</t>
@@ -285,18 +293,318 @@
     <t>REMOLQUE</t>
   </si>
   <si>
-    <t>PLACAS</t>
-  </si>
-  <si>
     <t>FIRMA Y SELLO DE CONTRATISTA</t>
   </si>
   <si>
-    <t>OBSERVACIONES</t>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION DEL CARGO</t>
+  </si>
+  <si>
+    <t>EMPRESA # 1</t>
+  </si>
+  <si>
+    <t>EMPRESA # 2</t>
+  </si>
+  <si>
+    <t>EMPRESA # 3</t>
+  </si>
+  <si>
+    <t>OFERTADO</t>
+  </si>
+  <si>
+    <t>GERENTE GENERAL</t>
+  </si>
+  <si>
+    <t>JEFE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>SUPERVISOR GENERAL</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE ABORDO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE MUELLE Y ACOPLE</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ESTIBA</t>
+  </si>
+  <si>
+    <t>CAPORAL DE MUELLE</t>
+  </si>
+  <si>
+    <t>CHEQUE DE MUELLE</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>ESTIBADOR</t>
+  </si>
+  <si>
+    <t>MUELLERO</t>
+  </si>
+  <si>
+    <t>MUELLERO BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>AMARRADOR</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>AUDITOR INTERNO</t>
+  </si>
+  <si>
+    <t>JEFE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>CONTADOR Y PAGADOR</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PERSONAL</t>
+  </si>
+  <si>
+    <t>UTILERO</t>
+  </si>
+  <si>
+    <t>ORDENANZA</t>
+  </si>
+  <si>
+    <t>CHEQUE DE PATIOS Y BODEGAS</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BASCULA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>SUPERINTENDENTE</t>
+  </si>
+  <si>
+    <t>AGRONOMO</t>
+  </si>
+  <si>
+    <t>ASISTENTE ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>BODEGUERO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE BOB- CAT</t>
+  </si>
+  <si>
+    <t>DIBUJANTE</t>
+  </si>
+  <si>
+    <t>PINTOR</t>
+  </si>
+  <si>
+    <t>TAPICERO</t>
+  </si>
+  <si>
+    <t>HOJALATERO</t>
+  </si>
+  <si>
+    <t>FONTANERO</t>
+  </si>
+  <si>
+    <t>ALBA¥IL</t>
+  </si>
+  <si>
+    <t>CARPINTERO</t>
+  </si>
+  <si>
+    <t>JARDINERO</t>
+  </si>
+  <si>
+    <t>TECNICO DE BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE TREN DE ASEO</t>
+  </si>
+  <si>
+    <t>OPERADOR CAMION CISTERNA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE LIMPIEZA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE CHAPODA</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPOS DE PRIMERA CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>JEFE DE TALLER MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO</t>
+  </si>
+  <si>
+    <t>ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SOLDADOR</t>
+  </si>
+  <si>
+    <t>ENGRASADOR</t>
+  </si>
+  <si>
+    <t>TORNERO</t>
+  </si>
+  <si>
+    <t>AUXILIAR MECANICO</t>
+  </si>
+  <si>
+    <t>OBRERO NO CALIFICADO</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE OFICINA</t>
+  </si>
+  <si>
+    <t>GERENTE DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>TECNICO ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>TECNICO MECANICO</t>
+  </si>
+  <si>
+    <t>MECANICO  1A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>MECANICO 2A. CATEGORIA</t>
+  </si>
+  <si>
+    <t>GERENTE DIVISION</t>
+  </si>
+  <si>
+    <t>INGENIERO DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>SUBGERENTE DE DIVISION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>JEFE DE MONTAJES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>TECNICO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>CONTROL ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>AUXILIAR ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SUPERVISOR ELECTRICISTA</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>OBRERO CALIFICADO</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>PEON DE BODEGAS</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>GERENTE ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>BANDEROS</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE UTILERIA</t>
+  </si>
+  <si>
+    <t>TRINCADORES</t>
+  </si>
+  <si>
+    <t>CAPORAL DE AMARRE</t>
+  </si>
+  <si>
+    <t>FICHERO</t>
+  </si>
+  <si>
+    <t>PALERO</t>
+  </si>
+  <si>
+    <t>CAPORAL BUQUE TANQUE</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>SUPERVISOR A BORDO</t>
+  </si>
+  <si>
+    <t>OPERADOR DE UNIDAD DECARGA</t>
+  </si>
+  <si>
+    <t>PRACTICANTE</t>
+  </si>
+  <si>
+    <t>WINCHERO EN PRACTICA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE EQUIPO PORTUARIO SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE GRUA DE BUQUE (WINCHERO) DE SEGUNDA CATEGORIA</t>
+  </si>
+  <si>
+    <t>OPERADOR DE CONTROL DE BANDAS</t>
   </si>
   <si>
     <t>JOSE LUIS ACOSTA GARCIA</t>
   </si>
   <si>
+    <t>UNIDADES  DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE</t>
+  </si>
+  <si>
     <t>TRANSPORTE ESMERALDA</t>
   </si>
   <si>
@@ -304,9 +612,6 @@
   </si>
   <si>
     <t>12 HRS</t>
-  </si>
-  <si>
-    <t>UNIDADES  DE TRANSPORTE PARA TRABAJAR EN DESEMBARQUE</t>
   </si>
 </sst>
 </file>
@@ -316,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +636,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
@@ -340,6 +651,18 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -525,32 +848,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Franklin Gothic Medium Cond"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Franklin Gothic Medium Cond"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -560,8 +866,46 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +984,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="62"/>
       </patternFill>
     </fill>
@@ -660,16 +1014,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
@@ -681,6 +1025,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,8 +1064,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -760,24 +1134,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -810,11 +1166,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
       <bottom style="double">
         <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,189 +1373,241 @@
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="32" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="32" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="32" fillId="29" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="39" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="39" fillId="29" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="33" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="33" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="33" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="33" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="33" fillId="26" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1251,22 +1690,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>393700</xdr:rowOff>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1876" name="Imagen 4" descr="horizontal">
+        <xdr:cNvPr id="1846" name="Imagen 4" descr="horizontal">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C073AD93-40D7-B445-929B-87E027757F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392770BC-114C-4B34-8A32-7754FF250E0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1289,8 +1728,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3289300" y="7099300"/>
-          <a:ext cx="5372100" cy="863600"/>
+          <a:off x="2876550" y="7962900"/>
+          <a:ext cx="4705350" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,22 +1764,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:colOff>1838325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1877" name="Imagen 1">
+        <xdr:cNvPr id="1847" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886879F7-31EF-5944-8420-9E245DDA4F6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68427C7-0988-475D-8E43-5E4E8C692C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,8 +1802,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11315700" y="177800"/>
-          <a:ext cx="1854200" cy="584200"/>
+          <a:off x="9906000" y="171450"/>
+          <a:ext cx="1628775" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,35 +2161,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="21" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1758,436 +2197,430 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B10" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47">
         <v>1</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
-        <v>1</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
-        <f t="shared" ref="A14:A31" si="0">A13+1</f>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47">
+        <f t="shared" ref="A14:A29" si="0">A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" s="42" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="47">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="47">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32">
+      <c r="B25" s="50"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="47">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32">
+      <c r="B26" s="51"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:8" s="16" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31">
+      <c r="B27" s="50"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="47">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" s="16" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31">
+      <c r="B28" s="51"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:8" s="16" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="31">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:8" s="16" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>15</v>
+      <c r="A33" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2195,7 +2628,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2209,7 +2642,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2227,25 +2660,1321 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.15748031496062992" top="0.11811023622047245" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.19685039370078741"/>
-  <pageSetup scale="70" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967294"/>
+  <pageSetup scale="70" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967294" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="6" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="H19:IV19" evalError="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="5" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15">
+        <v>850</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="15">
+        <v>750</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="15">
+        <v>700</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15">
+        <v>500</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15">
+        <v>900</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="15">
+        <v>290</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15">
+        <v>290</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15">
+        <v>260</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15">
+        <v>700</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15">
+        <v>270</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="15">
+        <v>270</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="15">
+        <v>260</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="10">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="15">
+        <v>600</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="12">
+        <v>600</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="15">
+        <v>0</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C98" s="13">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C102" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="256" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B2363-B0B3-0C41-84CE-C8F235BA48F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C4E1DF-65B9-1349-840F-7900BB0A2CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29520" windowHeight="16140" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -621,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,8 +904,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Medium Cond"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,12 +1074,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor auto="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1433,7 +1433,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1540,39 +1540,6 @@
     <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="39" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,6 +1575,27 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2161,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2178,15 +2166,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -2200,10 +2188,10 @@
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2226,9 +2214,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="34"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="36"/>
       <c r="G5" s="28"/>
     </row>
@@ -2263,9 +2251,9 @@
       <c r="B8" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="27"/>
       <c r="G8" s="37"/>
     </row>
@@ -2283,271 +2271,271 @@
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="68" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>1</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <f t="shared" ref="A14:A29" si="0">A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:8" s="42" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="24"/>

--- a/templates/plantilla_motoristas.xlsx
+++ b/templates/plantilla_motoristas.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexis/Documents/work/listas_project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C4E1DF-65B9-1349-840F-7900BB0A2CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1531A78-7A07-4D49-BDC5-2971CED61034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29520" windowHeight="16140" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29520" windowHeight="16140" tabRatio="913" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId1"/>
-    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
+    <sheet name="CC | 09-TCC &quot;CATALOGO DE CARGO&quot;" sheetId="11" r:id="rId1"/>
+    <sheet name="SOLICITUD DE ACCESO | PERSONAS" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$33</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOLICITUD DE ACCESO | PERSONAS'!$1:$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CC | 09-TCC "CATALOGO DE CARGO"'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SOLICITUD DE ACCESO | PERSONAS'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'SOLICITUD DE ACCESO | PERSONAS'!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1540,6 +1539,27 @@
     <xf numFmtId="0" fontId="41" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="39" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,27 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -2146,11 +2145,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="255" width="11.5" style="5" customWidth="1"/>
+    <col min="256" max="16384" width="40.5" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15">
+        <v>850</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="15">
+        <v>750</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="15">
+        <v>700</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15">
+        <v>500</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15">
+        <v>900</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="15">
+        <v>290</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15">
+        <v>290</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15">
+        <v>260</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15">
+        <v>700</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15">
+        <v>270</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="15">
+        <v>270</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="15">
+        <v>260</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="10">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="15">
+        <v>600</v>
+      </c>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="12">
+        <v>600</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="15">
+        <v>0</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C98" s="13">
+        <f>SUM(C2:C97)</f>
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C102" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G31"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2166,15 +3458,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -2188,10 +3480,10 @@
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2214,9 +3506,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="34"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="36"/>
       <c r="G5" s="28"/>
     </row>
@@ -2251,9 +3543,9 @@
       <c r="B8" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="27"/>
       <c r="G8" s="37"/>
     </row>
@@ -2271,271 +3563,271 @@
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="57" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>1</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <f t="shared" ref="A14:A29" si="0">A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:8" s="42" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="24"/>
@@ -2658,1312 +3950,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="18.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="255" width="11.5" style="5" customWidth="1"/>
-    <col min="256" max="16384" width="40.5" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15">
-        <v>850</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15">
-        <v>750</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15">
-        <v>700</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="15">
-        <v>500</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15">
-        <v>900</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="15">
-        <v>290</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="15">
-        <v>290</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15">
-        <v>260</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15">
-        <v>700</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
-        <v>21</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="15">
-        <v>270</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="17">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="8">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="8">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="8">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="8">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="8">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="8">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="8">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="8">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="14">
-        <v>76</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="15">
-        <v>270</v>
-      </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="14">
-        <v>77</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="15">
-        <v>260</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="8">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="8">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="8">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="8">
-        <v>83</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="18">
-        <v>85</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="18">
-        <v>86</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10">
-        <v>87</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14">
-        <v>93</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="15">
-        <v>0</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14">
-        <v>94</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="15">
-        <v>600</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8">
-        <v>95</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="12">
-        <v>600</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14">
-        <v>96</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="15">
-        <v>0</v>
-      </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C98" s="13">
-        <f>SUM(C2:C97)</f>
-        <v>8240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C102" s="13"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>